--- a/biology/Médecine/Tunnel_tarsien/Tunnel_tarsien.xlsx
+++ b/biology/Médecine/Tunnel_tarsien/Tunnel_tarsien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie humaine, le tunnel tarsien, également appelé canal tarsien, est un tunnel ostéo-fibreux formé par la rencontre du tibia distal, du talus et du rétinaculum des muscles fléchisseurs du pied. Cet espace renferme le paquet vasculo-nerveux rétrotibial, et, à l'instar du canal carpien (au membre supérieur), est fort important au point de vue clinique. Par définition, le canal tarsien est situé en postérieur de la malléole interne, et non pas en inférieur de celle-ci.
 </t>
@@ -511,7 +523,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme l'équivalent carpien, le canal tarsien contient dans une grande partie de son volume des tendons des muscles extrinsèques du pied (c'est-à-dire localisés dans la jambe) à action fléchissante. Ceux-ci sont recouverts d'une gaine synoviale , qui élargit l'espace occupé , réduisant en revanche le frottement lors de leur glissement. La principale différence entre les deux tunnels carpien et tarsal réside dans la position, qui dans la cheville est postérieure et dans le poignet est antérieure, en raison de la rotation à laquelle sont soumis les membres supérieurs au milieu de la quatrième semaine du développement embryonnaire.
 Alors que le canal carpien présente neuf tendons, le canal tarsien n'en présente que trois simples :
@@ -548,7 +562,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les différents types de compressions nerveuses pouvant se produire à la cheville, la condition la plus connue (et la plus traitée dans la littérature scientifique) est le syndrome du tunnel/canal tarsien.
 Ce syndrome survient à la suite d'une compression du nerf tibial ou d'une de ses branches, qui sont :
